--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Cd47</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Cd47</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H2">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N2">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O2">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P2">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q2">
-        <v>37.603423574896</v>
+        <v>113.3402132063156</v>
       </c>
       <c r="R2">
-        <v>338.430812174064</v>
+        <v>1020.06191885684</v>
       </c>
       <c r="S2">
-        <v>0.0009838771093189809</v>
+        <v>0.003319706863445221</v>
       </c>
       <c r="T2">
-        <v>0.0009838771093189805</v>
+        <v>0.00331970686344522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H3">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P3">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q3">
-        <v>87.434779344304</v>
+        <v>208.0686711016978</v>
       </c>
       <c r="R3">
-        <v>786.913014098736</v>
+        <v>1872.61803991528</v>
       </c>
       <c r="S3">
-        <v>0.00228769270925233</v>
+        <v>0.006094280008692833</v>
       </c>
       <c r="T3">
-        <v>0.002287692709252329</v>
+        <v>0.006094280008692833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H4">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N4">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O4">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P4">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q4">
-        <v>100.803077026528</v>
+        <v>190.7261367421644</v>
       </c>
       <c r="R4">
-        <v>907.227693238752</v>
+        <v>1716.53523067948</v>
       </c>
       <c r="S4">
-        <v>0.00263746836342662</v>
+        <v>0.00558632145881718</v>
       </c>
       <c r="T4">
-        <v>0.002637468363426619</v>
+        <v>0.00558632145881718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H5">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N5">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O5">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P5">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q5">
-        <v>24.756910697752</v>
+        <v>42.78027188951556</v>
       </c>
       <c r="R5">
-        <v>222.812196279768</v>
+        <v>385.02244700564</v>
       </c>
       <c r="S5">
-        <v>0.0006477537260525821</v>
+        <v>0.001253023602074571</v>
       </c>
       <c r="T5">
-        <v>0.0006477537260525819</v>
+        <v>0.001253023602074571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H6">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N6">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O6">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P6">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q6">
-        <v>71.34511566179199</v>
+        <v>224.6279713660267</v>
       </c>
       <c r="R6">
-        <v>642.1060409561279</v>
+        <v>2021.65174229424</v>
       </c>
       <c r="S6">
-        <v>0.001866713705509895</v>
+        <v>0.006579297825284338</v>
       </c>
       <c r="T6">
-        <v>0.001866713705509895</v>
+        <v>0.006579297825284338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H7">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N7">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O7">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P7">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q7">
-        <v>123.55982236676</v>
+        <v>163.4765930073867</v>
       </c>
       <c r="R7">
-        <v>1112.03840130084</v>
+        <v>1471.28933706648</v>
       </c>
       <c r="S7">
-        <v>0.003232888638877365</v>
+        <v>0.004788189050177491</v>
       </c>
       <c r="T7">
-        <v>0.003232888638877365</v>
+        <v>0.004788189050177492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
         <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J8">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N8">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O8">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P8">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q8">
-        <v>2911.380672643616</v>
+        <v>3687.509586791923</v>
       </c>
       <c r="R8">
-        <v>26202.42605379255</v>
+        <v>33187.5862811273</v>
       </c>
       <c r="S8">
-        <v>0.07617500025290379</v>
+        <v>0.1080062454268533</v>
       </c>
       <c r="T8">
-        <v>0.07617500025290376</v>
+        <v>0.1080062454268533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
         <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J9">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q9">
-        <v>6769.488054534671</v>
+        <v>6769.488054534673</v>
       </c>
       <c r="R9">
         <v>60925.39249081205</v>
       </c>
       <c r="S9">
-        <v>0.1771206902318166</v>
+        <v>0.1982766338699366</v>
       </c>
       <c r="T9">
-        <v>0.1771206902318166</v>
+        <v>0.1982766338699366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
         <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J10">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N10">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O10">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P10">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q10">
-        <v>7804.505608738339</v>
+        <v>6205.250879564509</v>
       </c>
       <c r="R10">
-        <v>70240.55047864506</v>
+        <v>55847.25791608058</v>
       </c>
       <c r="S10">
-        <v>0.2042014712488978</v>
+        <v>0.1817502663136153</v>
       </c>
       <c r="T10">
-        <v>0.2042014712488977</v>
+        <v>0.1817502663136153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
         <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J11">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N11">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O11">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P11">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q11">
-        <v>1916.761413392092</v>
+        <v>1391.850767308803</v>
       </c>
       <c r="R11">
-        <v>17250.85272052882</v>
+        <v>12526.65690577923</v>
       </c>
       <c r="S11">
-        <v>0.05015122293070601</v>
+        <v>0.04076696535514426</v>
       </c>
       <c r="T11">
-        <v>0.05015122293070599</v>
+        <v>0.04076696535514426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H12">
         <v>246.508934</v>
       </c>
       <c r="I12">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J12">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N12">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O12">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P12">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q12">
-        <v>5523.773398226787</v>
+        <v>7308.24280669069</v>
       </c>
       <c r="R12">
-        <v>49713.96058404109</v>
+        <v>65774.18526021621</v>
       </c>
       <c r="S12">
-        <v>0.1445271118135282</v>
+        <v>0.2140566275531177</v>
       </c>
       <c r="T12">
-        <v>0.1445271118135281</v>
+        <v>0.2140566275531177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H13">
         <v>246.508934</v>
       </c>
       <c r="I13">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J13">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N13">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O13">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P13">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q13">
-        <v>9566.407644702289</v>
+        <v>5318.690400145015</v>
       </c>
       <c r="R13">
-        <v>86097.66880232061</v>
+        <v>47868.21360130514</v>
       </c>
       <c r="S13">
-        <v>0.2503008663902678</v>
+        <v>0.1557831287449683</v>
       </c>
       <c r="T13">
-        <v>0.2503008663902677</v>
+        <v>0.1557831287449683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H14">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I14">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J14">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N14">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O14">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P14">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q14">
-        <v>0.1899356068671111</v>
+        <v>300.1548550833085</v>
       </c>
       <c r="R14">
-        <v>1.709420461804</v>
+        <v>2701.393695749776</v>
       </c>
       <c r="S14">
-        <v>4.969581970879801E-06</v>
+        <v>0.008791461603329167</v>
       </c>
       <c r="T14">
-        <v>4.9695819708798E-06</v>
+        <v>0.008791461603329167</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H15">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I15">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J15">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P15">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q15">
-        <v>0.4416347315551111</v>
+        <v>551.0208606033102</v>
       </c>
       <c r="R15">
-        <v>3.974712583995999</v>
+        <v>4959.187745429792</v>
       </c>
       <c r="S15">
-        <v>1.155517933604822E-05</v>
+        <v>0.01613926497135239</v>
       </c>
       <c r="T15">
-        <v>1.155517933604822E-05</v>
+        <v>0.01613926497135239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H16">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I16">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J16">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N16">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O16">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P16">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q16">
-        <v>0.509158257119111</v>
+        <v>505.0932437389635</v>
       </c>
       <c r="R16">
-        <v>4.582424314072</v>
+        <v>4545.839193650671</v>
       </c>
       <c r="S16">
-        <v>1.332190281032481E-05</v>
+        <v>0.01479405641197977</v>
       </c>
       <c r="T16">
-        <v>1.332190281032481E-05</v>
+        <v>0.01479405641197977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H17">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I17">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J17">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N17">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O17">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P17">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q17">
-        <v>0.1250476262664444</v>
+        <v>113.2934723357885</v>
       </c>
       <c r="R17">
-        <v>1.125428636398</v>
+        <v>1019.641251022096</v>
       </c>
       <c r="S17">
-        <v>3.271816376324982E-06</v>
+        <v>0.003318337834886841</v>
       </c>
       <c r="T17">
-        <v>3.271816376324981E-06</v>
+        <v>0.003318337834886841</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H18">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I18">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J18">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N18">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O18">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P18">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q18">
-        <v>0.3603655346231111</v>
+        <v>594.8742664732373</v>
       </c>
       <c r="R18">
-        <v>3.243289811608</v>
+        <v>5353.868398259136</v>
       </c>
       <c r="S18">
-        <v>9.428806390380806E-06</v>
+        <v>0.01742372040277851</v>
       </c>
       <c r="T18">
-        <v>9.428806390380804E-06</v>
+        <v>0.01742372040277851</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H19">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I19">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J19">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N19">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O19">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P19">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q19">
-        <v>0.6241030101655554</v>
+        <v>432.9292463419413</v>
       </c>
       <c r="R19">
-        <v>5.616927091489999</v>
+        <v>3896.363217077472</v>
       </c>
       <c r="S19">
-        <v>1.632938193342837E-05</v>
+        <v>0.01268039074402787</v>
       </c>
       <c r="T19">
-        <v>1.632938193342837E-05</v>
+        <v>0.01268039074402787</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H20">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I20">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J20">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N20">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O20">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P20">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q20">
-        <v>274.2383169301684</v>
+        <v>2.429569376371556</v>
       </c>
       <c r="R20">
-        <v>2468.144852371516</v>
+        <v>21.866124387344</v>
       </c>
       <c r="S20">
-        <v>0.007175325459086284</v>
+        <v>7.116148722320871E-05</v>
       </c>
       <c r="T20">
-        <v>0.007175325459086282</v>
+        <v>7.116148722320871E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H21">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I21">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J21">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>247.152878</v>
       </c>
       <c r="O21">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P21">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q21">
-        <v>637.6538210885204</v>
+        <v>4.460175759249778</v>
       </c>
       <c r="R21">
-        <v>5738.884389796684</v>
+        <v>40.141581833248</v>
       </c>
       <c r="S21">
-        <v>0.0166839329666145</v>
+        <v>0.000130637446862756</v>
       </c>
       <c r="T21">
-        <v>0.01668393296661449</v>
+        <v>0.000130637446862756</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H22">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I22">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J22">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N22">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O22">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P22">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q22">
-        <v>735.1475891570763</v>
+        <v>4.088419881996444</v>
       </c>
       <c r="R22">
-        <v>6616.328302413687</v>
+        <v>36.795778937968</v>
       </c>
       <c r="S22">
-        <v>0.01923481471047633</v>
+        <v>0.0001197488089968867</v>
       </c>
       <c r="T22">
-        <v>0.01923481471047633</v>
+        <v>0.0001197488089968867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H23">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I23">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J23">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N23">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O23">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P23">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q23">
-        <v>180.5498775562158</v>
+        <v>0.9170411414915557</v>
       </c>
       <c r="R23">
-        <v>1624.948898005942</v>
+        <v>8.253370273424</v>
       </c>
       <c r="S23">
-        <v>0.004724008473965042</v>
+        <v>2.685990863568908E-05</v>
       </c>
       <c r="T23">
-        <v>0.00472400847396504</v>
+        <v>2.685990863568908E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H24">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I24">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J24">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N24">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O24">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P24">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q24">
-        <v>520.3133805438923</v>
+        <v>4.815142171242666</v>
       </c>
       <c r="R24">
-        <v>4682.820424895031</v>
+        <v>43.336279541184</v>
       </c>
       <c r="S24">
-        <v>0.0136137717293186</v>
+        <v>0.0001410343254361205</v>
       </c>
       <c r="T24">
-        <v>0.0136137717293186</v>
+        <v>0.0001410343254361206</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H25">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I25">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J25">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N25">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O25">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P25">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q25">
-        <v>901.110444333912</v>
+        <v>3.504296603018667</v>
       </c>
       <c r="R25">
-        <v>8109.993999005208</v>
+        <v>31.538669427168</v>
       </c>
       <c r="S25">
-        <v>0.02357716013230968</v>
+        <v>0.0001026399823636525</v>
       </c>
       <c r="T25">
-        <v>0.02357716013230967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H26">
-        <v>0.218341</v>
-      </c>
-      <c r="I26">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J26">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>35.43134066666666</v>
-      </c>
-      <c r="N26">
-        <v>106.294022</v>
-      </c>
-      <c r="O26">
-        <v>0.08440664308460712</v>
-      </c>
-      <c r="P26">
-        <v>0.0844066430846071</v>
-      </c>
-      <c r="Q26">
-        <v>2.578704784166888</v>
-      </c>
-      <c r="R26">
-        <v>23.208343057502</v>
-      </c>
-      <c r="S26">
-        <v>6.747068132718982E-05</v>
-      </c>
-      <c r="T26">
-        <v>6.747068132718979E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H27">
-        <v>0.218341</v>
-      </c>
-      <c r="I27">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J27">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>82.38429266666667</v>
-      </c>
-      <c r="N27">
-        <v>247.152878</v>
-      </c>
-      <c r="O27">
-        <v>0.1962607526571856</v>
-      </c>
-      <c r="P27">
-        <v>0.1962607526571856</v>
-      </c>
-      <c r="Q27">
-        <v>5.995956281710888</v>
-      </c>
-      <c r="R27">
-        <v>53.96360653539799</v>
-      </c>
-      <c r="S27">
-        <v>0.000156881570166155</v>
-      </c>
-      <c r="T27">
-        <v>0.0001568815701661549</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H28">
-        <v>0.218341</v>
-      </c>
-      <c r="I28">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J28">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>94.98039866666666</v>
-      </c>
-      <c r="N28">
-        <v>284.941196</v>
-      </c>
-      <c r="O28">
-        <v>0.2262679441264635</v>
-      </c>
-      <c r="P28">
-        <v>0.2262679441264634</v>
-      </c>
-      <c r="Q28">
-        <v>6.912705075092887</v>
-      </c>
-      <c r="R28">
-        <v>62.21434567583599</v>
-      </c>
-      <c r="S28">
-        <v>0.0001808679008524518</v>
-      </c>
-      <c r="T28">
-        <v>0.0001808679008524518</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H29">
-        <v>0.218341</v>
-      </c>
-      <c r="I29">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J29">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>23.32687966666667</v>
-      </c>
-      <c r="N29">
-        <v>69.980639</v>
-      </c>
-      <c r="O29">
-        <v>0.05557067752037587</v>
-      </c>
-      <c r="P29">
-        <v>0.05557067752037585</v>
-      </c>
-      <c r="Q29">
-        <v>1.697738077766555</v>
-      </c>
-      <c r="R29">
-        <v>15.279642699899</v>
-      </c>
-      <c r="S29">
-        <v>4.442057327590927E-05</v>
-      </c>
-      <c r="T29">
-        <v>4.442057327590925E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H30">
-        <v>0.218341</v>
-      </c>
-      <c r="I30">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J30">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>67.22401466666666</v>
-      </c>
-      <c r="N30">
-        <v>201.672044</v>
-      </c>
-      <c r="O30">
-        <v>0.1601450384298299</v>
-      </c>
-      <c r="P30">
-        <v>0.1601450384298299</v>
-      </c>
-      <c r="Q30">
-        <v>4.892586195444887</v>
-      </c>
-      <c r="R30">
-        <v>44.033275759004</v>
-      </c>
-      <c r="S30">
-        <v>0.000128012375082834</v>
-      </c>
-      <c r="T30">
-        <v>0.0001280123750828339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H31">
-        <v>0.218341</v>
-      </c>
-      <c r="I31">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J31">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>116.4226483333333</v>
-      </c>
-      <c r="N31">
-        <v>349.2679449999999</v>
-      </c>
-      <c r="O31">
-        <v>0.2773489441815381</v>
-      </c>
-      <c r="P31">
-        <v>0.2773489441815381</v>
-      </c>
-      <c r="Q31">
-        <v>8.473279153249441</v>
-      </c>
-      <c r="R31">
-        <v>76.25951237924498</v>
-      </c>
-      <c r="S31">
-        <v>0.0002216996381498995</v>
-      </c>
-      <c r="T31">
-        <v>0.0002216996381498994</v>
+        <v>0.0001026399823636525</v>
       </c>
     </row>
   </sheetData>
